--- a/Janine/Docs/Project/taskboard.xlsx
+++ b/Janine/Docs/Project/taskboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janine\Documents\infnet\Janine_ManutEqp\Docs\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janine\Documents\infnet\mit_ds_course\Janine\Docs\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647E531-DACB-45C9-95FE-95B98CC5AAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0077B96C-6BE4-48E2-912E-97B1A9BD2A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EFC1725C-2304-4691-9531-9BACDA3C9584}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Story</t>
   </si>
@@ -68,9 +68,6 @@
 Isso vai criar um novo branch a partir do master. Voce talvez precise atualizar a sua versao local, atraves de "add", "commit" e "push" antes de fazer 1). </t>
   </si>
   <si>
-    <t>TO BE DONE</t>
-  </si>
-  <si>
     <t>1) Branch criado no repositorio com o nome do aluno</t>
   </si>
   <si>
@@ -93,11 +90,6 @@
   </si>
   <si>
     <t>Documentar a definicao da base de dados</t>
-  </si>
-  <si>
-    <t>1) Documentar em Docs/DataReport/Report.md as colunas da base de dados
-2) Documentar o script que faz o processamento da base
-3) Registrar a fonte e o destino dos dados processados.</t>
   </si>
   <si>
     <t>1) Script de preparacao dos dados</t>
@@ -159,9 +151,6 @@
     <t>Apresentação de resultados</t>
   </si>
   <si>
-    <t>1) Documentar os resultados encontrados em Docs/Model/Report.md</t>
-  </si>
-  <si>
     <t>1) Notebook com a modelagem
 2) Resultados de teste exportados</t>
   </si>
@@ -182,13 +171,6 @@
   </si>
   <si>
     <t>1) Apresentação atualizada em pdf</t>
-  </si>
-  <si>
-    <t>1) Notebook com a construção e análise das features.
-2) Analisar a distribuicao das features para cada classe.
-3) Fazer a análise de correlação das variáveis com a variável alvo.
-4) Observar comportamento das classes em scatter plot de variáveis preditoras (com a classe identificada pela cor)
-5) Documentar análises em Docs/Model/Report.md</t>
   </si>
   <si>
     <t xml:space="preserve">1) Notebook com a construção dos modelos em Code/Model/modeling.ipynb
@@ -206,16 +188,28 @@
     <t>Remover os arquivos que nao fazem parte do projeto. Manter apenas os arquivos:
 1) Docs/Project/Charter.md
 2) Docs/Project/taskboard.xlsx
-3) Data/Raw/Janine_ManutEqp/intervencao_eqp.csv(base de dados)</t>
+3) Data/Raw/Janine/.......csv(base de dados)</t>
   </si>
   <si>
     <t>1) Criar arquivo Code/DataPrep/data_prep.ipynb
-2) Carregar o arquivo Data/Raw/Janine_ManutEqp/intervencao_eqp.csv e descrever o conteudo
+2) Carregar o arquivo Data/Raw/Janine/......csv e descrever o conteudo
 3) Tratar as colunas do arquivo e salvar a tabela processada
-4) Exportar o arquivo processado para Data/Processed/intervencao_eqp</t>
-  </si>
-  <si>
-    <t>FAZER</t>
+4) Exportar o arquivo processado para Data/Processed/.....</t>
+  </si>
+  <si>
+    <t>1) Documentar os resultados encontrados em Docs/Model/Report.xlsx</t>
+  </si>
+  <si>
+    <t>1) Notebook com a construção e análise das features.
+2) Analisar a distribuicao das features para cada classe.
+3) Fazer a análise de correlação das variáveis com a variável alvo.
+4) Observar comportamento das classes em scatter plot de variáveis preditoras (com a classe identificada pela cor)
+5) Documentar análises em Docs/Model/Report.xlsx</t>
+  </si>
+  <si>
+    <t>1) Documentar em Docs/DataReportReport.xlsx as colunas da base de dados
+2) Documentar o script que faz o processamento da base
+3) Registrar a fonte e o destino dos dados processados.</t>
   </si>
 </sst>
 </file>
@@ -233,18 +227,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC68CFBD-2DA0-4910-875F-F7F64F0C64ED}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -689,15 +689,15 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>50</v>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -705,22 +705,22 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>50</v>
+      <c r="F3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -731,25 +731,25 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>50</v>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -757,22 +757,22 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>50</v>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -783,22 +783,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>50</v>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -809,22 +809,22 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -832,25 +832,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="144" x14ac:dyDescent="0.3">
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -884,25 +884,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -910,25 +910,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">

--- a/Janine/Docs/Project/taskboard.xlsx
+++ b/Janine/Docs/Project/taskboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janine\Documents\infnet\mit_ds_course\Janine\Docs\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0077B96C-6BE4-48E2-912E-97B1A9BD2A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3C7939-CA06-440D-81F5-D58D999297E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EFC1725C-2304-4691-9531-9BACDA3C9584}"/>
   </bookViews>
@@ -197,19 +197,20 @@
 4) Exportar o arquivo processado para Data/Processed/.....</t>
   </si>
   <si>
-    <t>1) Documentar os resultados encontrados em Docs/Model/Report.xlsx</t>
+    <t>1) Documentar os resultados encontrados em Docs/Model/ReportModelo.xlsx</t>
   </si>
   <si>
     <t>1) Notebook com a construção e análise das features.
 2) Analisar a distribuicao das features para cada classe.
 3) Fazer a análise de correlação das variáveis com a variável alvo.
 4) Observar comportamento das classes em scatter plot de variáveis preditoras (com a classe identificada pela cor)
-5) Documentar análises em Docs/Model/Report.xlsx</t>
-  </si>
-  <si>
-    <t>1) Documentar em Docs/DataReportReport.xlsx as colunas da base de dados
+5) Documentar análises em Docs/Model/ReportModelo.xlsx</t>
+  </si>
+  <si>
+    <t>1) Documentar em Docs/DataReport/Report.xlsx as colunas da base de dados
 2) Documentar o script que faz o processamento da base
-3) Registrar a fonte e o destino dos dados processados.</t>
+3) Registrar a fonte e o destino dos dados processados.
+4) Disponibilizar a leitura em HTML</t>
   </si>
 </sst>
 </file>
@@ -635,7 +636,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>

--- a/Janine/Docs/Project/taskboard.xlsx
+++ b/Janine/Docs/Project/taskboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janine\Documents\infnet\mit_ds_course\Janine\Docs\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3C7939-CA06-440D-81F5-D58D999297E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450C472B-1DC2-4B4E-8C92-09DE75C197EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EFC1725C-2304-4691-9531-9BACDA3C9584}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Story</t>
   </si>
@@ -211,6 +211,9 @@
 2) Documentar o script que faz o processamento da base
 3) Registrar a fonte e o destino dos dados processados.
 4) Disponibilizar a leitura em HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEITO </t>
   </si>
 </sst>
 </file>
@@ -635,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC68CFBD-2DA0-4910-875F-F7F64F0C64ED}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
